--- a/Tests/MODELS2020-CaseStudies/case.study.pledge.run/measurements/stats/masterStats.xlsx
+++ b/Tests/MODELS2020-CaseStudies/case.study.pledge.run/measurements/stats/masterStats.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aren Babikian\git\VIATRA-Generator-master\Tests\MODELS2020-CaseStudies\case.study.pledge.run\measurements\stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBF45DD-A7D3-4FDA-B1FB-F91B1C8A9A61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699D56EF-F238-4E76-97C3-7A702D31EB09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E64D79E6-F698-41C3-8E6D-95D952E1E2EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E64D79E6-F698-41C3-8E6D-95D952E1E2EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="FamilyTree" sheetId="1" r:id="rId1"/>
+    <sheet name="FamilyTree" sheetId="5" r:id="rId1"/>
     <sheet name="Satellite" sheetId="2" r:id="rId2"/>
     <sheet name="TaxationNoRoot" sheetId="3" r:id="rId3"/>
     <sheet name="TaxationWithResource" sheetId="4" r:id="rId4"/>
+    <sheet name="FamilyTreeOld" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="29">
   <si>
     <t>Task</t>
   </si>
@@ -116,14 +117,20 @@
     <t xml:space="preserve">Median: </t>
   </si>
   <si>
-    <t>Ta</t>
+    <t>50to100</t>
+  </si>
+  <si>
+    <t>100to150</t>
+  </si>
+  <si>
+    <t>150to200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +146,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +184,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -266,11 +300,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -587,11 +669,7805 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D53274A-A6D1-4EC5-91C8-0126C16421E0}">
+  <dimension ref="A1:V31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:V1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="21" max="21" width="9.140625" style="13"/>
+    <col min="22" max="22" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>1183</v>
+      </c>
+      <c r="F2">
+        <v>22542</v>
+      </c>
+      <c r="G2">
+        <v>101077</v>
+      </c>
+      <c r="H2">
+        <v>44</v>
+      </c>
+      <c r="I2">
+        <v>4195</v>
+      </c>
+      <c r="J2">
+        <v>14</v>
+      </c>
+      <c r="K2">
+        <v>13166</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>77588</v>
+      </c>
+      <c r="P2">
+        <v>30267</v>
+      </c>
+      <c r="Q2">
+        <v>42363</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>137</v>
+      </c>
+      <c r="T2">
+        <v>3832</v>
+      </c>
+      <c r="U2" s="13">
+        <v>0</v>
+      </c>
+      <c r="V2" s="10">
+        <v>100529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1183</v>
+      </c>
+      <c r="F3">
+        <v>23301</v>
+      </c>
+      <c r="G3">
+        <v>10597</v>
+      </c>
+      <c r="H3">
+        <v>36</v>
+      </c>
+      <c r="I3">
+        <v>438</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>899</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>8402</v>
+      </c>
+      <c r="P3">
+        <v>3308</v>
+      </c>
+      <c r="Q3">
+        <v>4579</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13</v>
+      </c>
+      <c r="T3">
+        <v>438</v>
+      </c>
+      <c r="U3" s="13">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
+        <v>10254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1183</v>
+      </c>
+      <c r="F4">
+        <v>21411</v>
+      </c>
+      <c r="G4">
+        <v>77513</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>2985</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>9092</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>61198</v>
+      </c>
+      <c r="P4">
+        <v>23766</v>
+      </c>
+      <c r="Q4">
+        <v>33713</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>97</v>
+      </c>
+      <c r="T4">
+        <v>3061</v>
+      </c>
+      <c r="U4" s="13">
+        <v>0</v>
+      </c>
+      <c r="V4" s="10">
+        <v>77187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1183</v>
+      </c>
+      <c r="F5">
+        <v>21329</v>
+      </c>
+      <c r="G5">
+        <v>112532</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <v>4634</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>13579</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>88036</v>
+      </c>
+      <c r="P5">
+        <v>34199</v>
+      </c>
+      <c r="Q5">
+        <v>48489</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>134</v>
+      </c>
+      <c r="T5">
+        <v>4526</v>
+      </c>
+      <c r="U5" s="13">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10">
+        <v>112205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1183</v>
+      </c>
+      <c r="F6">
+        <v>21178</v>
+      </c>
+      <c r="G6">
+        <v>72247</v>
+      </c>
+      <c r="H6">
+        <v>26</v>
+      </c>
+      <c r="I6">
+        <v>2743</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>8634</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>57013</v>
+      </c>
+      <c r="P6">
+        <v>22254</v>
+      </c>
+      <c r="Q6">
+        <v>31273</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>92</v>
+      </c>
+      <c r="T6">
+        <v>2866</v>
+      </c>
+      <c r="U6" s="13">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
+        <v>71968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1183</v>
+      </c>
+      <c r="F7">
+        <v>21916</v>
+      </c>
+      <c r="G7">
+        <v>10852</v>
+      </c>
+      <c r="H7">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>467</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>845</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>8705</v>
+      </c>
+      <c r="P7">
+        <v>3425</v>
+      </c>
+      <c r="Q7">
+        <v>4757</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>11</v>
+      </c>
+      <c r="T7">
+        <v>469</v>
+      </c>
+      <c r="U7" s="13">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <v>10553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1183</v>
+      </c>
+      <c r="F8">
+        <v>21248</v>
+      </c>
+      <c r="G8">
+        <v>44682</v>
+      </c>
+      <c r="H8">
+        <v>166</v>
+      </c>
+      <c r="I8">
+        <v>1768</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>5414</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>34974</v>
+      </c>
+      <c r="P8">
+        <v>13544</v>
+      </c>
+      <c r="Q8">
+        <v>19315</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>55</v>
+      </c>
+      <c r="T8">
+        <v>1743</v>
+      </c>
+      <c r="U8" s="13">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1183</v>
+      </c>
+      <c r="F9">
+        <v>21455</v>
+      </c>
+      <c r="G9">
+        <v>75975</v>
+      </c>
+      <c r="H9">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>3059</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>8952</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>59768</v>
+      </c>
+      <c r="P9">
+        <v>23441</v>
+      </c>
+      <c r="Q9">
+        <v>32755</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>93</v>
+      </c>
+      <c r="T9">
+        <v>3066</v>
+      </c>
+      <c r="U9" s="13">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <v>75688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1183</v>
+      </c>
+      <c r="F10">
+        <v>21892</v>
+      </c>
+      <c r="G10">
+        <v>34651</v>
+      </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>1374</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>4060</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>27206</v>
+      </c>
+      <c r="P10">
+        <v>10589</v>
+      </c>
+      <c r="Q10">
+        <v>14988</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>41</v>
+      </c>
+      <c r="T10">
+        <v>1379</v>
+      </c>
+      <c r="U10" s="13">
+        <v>0</v>
+      </c>
+      <c r="V10" s="10">
+        <v>34399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1183</v>
+      </c>
+      <c r="F11">
+        <v>20002</v>
+      </c>
+      <c r="G11">
+        <v>34838</v>
+      </c>
+      <c r="H11">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>1404</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>4123</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>27201</v>
+      </c>
+      <c r="P11">
+        <v>10810</v>
+      </c>
+      <c r="Q11">
+        <v>14830</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>46</v>
+      </c>
+      <c r="T11">
+        <v>1630</v>
+      </c>
+      <c r="U11" s="13">
+        <v>0</v>
+      </c>
+      <c r="V11" s="10">
+        <v>34573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2">
+        <v>879</v>
+      </c>
+      <c r="F12" s="2">
+        <v>19443</v>
+      </c>
+      <c r="G12" s="2">
+        <v>651643</v>
+      </c>
+      <c r="H12" s="2">
+        <v>184</v>
+      </c>
+      <c r="I12" s="2">
+        <v>21212</v>
+      </c>
+      <c r="J12" s="2">
+        <v>11</v>
+      </c>
+      <c r="K12" s="2">
+        <v>179104</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>4</v>
+      </c>
+      <c r="N12" s="2">
+        <v>7</v>
+      </c>
+      <c r="O12" s="2">
+        <v>419575</v>
+      </c>
+      <c r="P12" s="2">
+        <v>164831</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>230210</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>947</v>
+      </c>
+      <c r="T12" s="2">
+        <v>23537</v>
+      </c>
+      <c r="U12" s="15">
+        <v>0</v>
+      </c>
+      <c r="V12" s="8">
+        <v>651257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4">
+        <v>879</v>
+      </c>
+      <c r="F13" s="4">
+        <v>18046</v>
+      </c>
+      <c r="G13" s="4">
+        <v>182316</v>
+      </c>
+      <c r="H13" s="4">
+        <v>62</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5071</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>49236</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>119651</v>
+      </c>
+      <c r="P13" s="4">
+        <v>46315</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>66413</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>254</v>
+      </c>
+      <c r="T13" s="4">
+        <v>6726</v>
+      </c>
+      <c r="U13" s="14">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <v>181935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4">
+        <v>879</v>
+      </c>
+      <c r="F14" s="4">
+        <v>20068</v>
+      </c>
+      <c r="G14" s="4">
+        <v>161063</v>
+      </c>
+      <c r="H14" s="4">
+        <v>58</v>
+      </c>
+      <c r="I14" s="4">
+        <v>4742</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>41326</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>107511</v>
+      </c>
+      <c r="P14" s="4">
+        <v>42225</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>59151</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>227</v>
+      </c>
+      <c r="T14" s="4">
+        <v>6076</v>
+      </c>
+      <c r="U14" s="14">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>160742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="4">
+        <v>879</v>
+      </c>
+      <c r="F15" s="4">
+        <v>18426</v>
+      </c>
+      <c r="G15" s="4">
+        <v>465629</v>
+      </c>
+      <c r="H15" s="4">
+        <v>46</v>
+      </c>
+      <c r="I15" s="4">
+        <v>12648</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>131101</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4">
+        <v>301285</v>
+      </c>
+      <c r="P15" s="4">
+        <v>116841</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>167252</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>659</v>
+      </c>
+      <c r="T15" s="4">
+        <v>16812</v>
+      </c>
+      <c r="U15" s="14">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <v>465315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4">
+        <v>879</v>
+      </c>
+      <c r="F16" s="4">
+        <v>17705</v>
+      </c>
+      <c r="G16" s="4">
+        <v>168215</v>
+      </c>
+      <c r="H16" s="4">
+        <v>49</v>
+      </c>
+      <c r="I16" s="4">
+        <v>4703</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>43921</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>112242</v>
+      </c>
+      <c r="P16" s="4">
+        <v>43654</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>62123</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>245</v>
+      </c>
+      <c r="T16" s="4">
+        <v>5883</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>167927</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="4">
+        <v>879</v>
+      </c>
+      <c r="F17" s="4">
+        <v>18076</v>
+      </c>
+      <c r="G17" s="4">
+        <v>549336</v>
+      </c>
+      <c r="H17" s="4">
+        <v>63</v>
+      </c>
+      <c r="I17" s="4">
+        <v>17591</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>159262</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>2</v>
+      </c>
+      <c r="O17" s="4">
+        <v>346772</v>
+      </c>
+      <c r="P17" s="4">
+        <v>135097</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>191753</v>
+      </c>
+      <c r="R17" s="4">
+        <v>1</v>
+      </c>
+      <c r="S17" s="4">
+        <v>752</v>
+      </c>
+      <c r="T17" s="4">
+        <v>18459</v>
+      </c>
+      <c r="U17" s="14">
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <v>548983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="4">
+        <v>879</v>
+      </c>
+      <c r="F18" s="4">
+        <v>21873</v>
+      </c>
+      <c r="G18" s="4">
+        <v>137218</v>
+      </c>
+      <c r="H18" s="4">
+        <v>59</v>
+      </c>
+      <c r="I18" s="4">
+        <v>4064</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>34744</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>92329</v>
+      </c>
+      <c r="P18" s="4">
+        <v>34957</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>51811</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>180</v>
+      </c>
+      <c r="T18" s="4">
+        <v>4164</v>
+      </c>
+      <c r="U18" s="14">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <v>136910</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="4">
+        <v>879</v>
+      </c>
+      <c r="F19" s="4">
+        <v>21797</v>
+      </c>
+      <c r="G19" s="4">
+        <v>148870</v>
+      </c>
+      <c r="H19" s="4">
+        <v>57</v>
+      </c>
+      <c r="I19" s="4">
+        <v>4279</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>40173</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>97936</v>
+      </c>
+      <c r="P19" s="4">
+        <v>37760</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>54439</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>212</v>
+      </c>
+      <c r="T19" s="4">
+        <v>4724</v>
+      </c>
+      <c r="U19" s="14">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>148576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="4">
+        <v>879</v>
+      </c>
+      <c r="F20" s="4">
+        <v>19029</v>
+      </c>
+      <c r="G20" s="4">
+        <v>180486</v>
+      </c>
+      <c r="H20" s="4">
+        <v>47</v>
+      </c>
+      <c r="I20" s="4">
+        <v>4602</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>53289</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>115093</v>
+      </c>
+      <c r="P20" s="4">
+        <v>44670</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>63808</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>256</v>
+      </c>
+      <c r="T20" s="4">
+        <v>6258</v>
+      </c>
+      <c r="U20" s="14">
+        <v>0</v>
+      </c>
+      <c r="V20" s="7">
+        <v>180232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="6">
+        <v>879</v>
+      </c>
+      <c r="F21" s="6">
+        <v>19549</v>
+      </c>
+      <c r="G21" s="6">
+        <v>40959</v>
+      </c>
+      <c r="H21" s="6">
+        <v>48</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1381</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>8712</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>28736</v>
+      </c>
+      <c r="P21" s="6">
+        <v>11403</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>15729</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <v>58</v>
+      </c>
+      <c r="T21" s="6">
+        <v>1606</v>
+      </c>
+      <c r="U21" s="16">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9">
+        <v>40646</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>846</v>
+      </c>
+      <c r="F22">
+        <v>17526</v>
+      </c>
+      <c r="G22">
+        <v>499514</v>
+      </c>
+      <c r="H22">
+        <v>227</v>
+      </c>
+      <c r="I22">
+        <v>11539</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>204754</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>263987</v>
+      </c>
+      <c r="P22">
+        <v>104227</v>
+      </c>
+      <c r="Q22">
+        <v>144444</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>717</v>
+      </c>
+      <c r="T22">
+        <v>12852</v>
+      </c>
+      <c r="U22" s="13">
+        <v>0</v>
+      </c>
+      <c r="V22" s="10">
+        <v>499045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>846</v>
+      </c>
+      <c r="F23">
+        <v>17121</v>
+      </c>
+      <c r="G23">
+        <v>781803</v>
+      </c>
+      <c r="H23">
+        <v>122</v>
+      </c>
+      <c r="I23">
+        <v>18102</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>318949</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>415501</v>
+      </c>
+      <c r="P23">
+        <v>164007</v>
+      </c>
+      <c r="Q23">
+        <v>228056</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1104</v>
+      </c>
+      <c r="T23">
+        <v>20830</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="10">
+        <v>781328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>846</v>
+      </c>
+      <c r="F24">
+        <v>18440</v>
+      </c>
+      <c r="G24">
+        <v>634127</v>
+      </c>
+      <c r="H24">
+        <v>128</v>
+      </c>
+      <c r="I24">
+        <v>14051</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>262104</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>334660</v>
+      </c>
+      <c r="P24">
+        <v>130992</v>
+      </c>
+      <c r="Q24">
+        <v>184595</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>884</v>
+      </c>
+      <c r="T24">
+        <v>16475</v>
+      </c>
+      <c r="U24" s="13">
+        <v>0</v>
+      </c>
+      <c r="V24" s="10">
+        <v>633692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>846</v>
+      </c>
+      <c r="F25">
+        <v>16794</v>
+      </c>
+      <c r="G25">
+        <v>473754</v>
+      </c>
+      <c r="H25">
+        <v>116</v>
+      </c>
+      <c r="I25">
+        <v>10986</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>192322</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>252834</v>
+      </c>
+      <c r="P25">
+        <v>99825</v>
+      </c>
+      <c r="Q25">
+        <v>138699</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>658</v>
+      </c>
+      <c r="T25">
+        <v>12657</v>
+      </c>
+      <c r="U25" s="13">
+        <v>0</v>
+      </c>
+      <c r="V25" s="10">
+        <v>473338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>846</v>
+      </c>
+      <c r="F26">
+        <v>16617</v>
+      </c>
+      <c r="G26">
+        <v>618165</v>
+      </c>
+      <c r="H26">
+        <v>124</v>
+      </c>
+      <c r="I26">
+        <v>13785</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>253493</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>328033</v>
+      </c>
+      <c r="P26">
+        <v>129218</v>
+      </c>
+      <c r="Q26">
+        <v>180178</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>935</v>
+      </c>
+      <c r="T26">
+        <v>16546</v>
+      </c>
+      <c r="U26" s="13">
+        <v>0</v>
+      </c>
+      <c r="V26" s="10">
+        <v>617781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>846</v>
+      </c>
+      <c r="F27">
+        <v>16582</v>
+      </c>
+      <c r="G27">
+        <v>900172</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>20695</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>377036</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>469034</v>
+      </c>
+      <c r="P27">
+        <v>185289</v>
+      </c>
+      <c r="Q27">
+        <v>257187</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>1240</v>
+      </c>
+      <c r="T27">
+        <v>23469</v>
+      </c>
+      <c r="U27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>846</v>
+      </c>
+      <c r="F28">
+        <v>16704</v>
+      </c>
+      <c r="G28">
+        <v>900155</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>22081</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>372235</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>471061</v>
+      </c>
+      <c r="P28">
+        <v>186112</v>
+      </c>
+      <c r="Q28">
+        <v>258265</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>1253</v>
+      </c>
+      <c r="T28">
+        <v>23454</v>
+      </c>
+      <c r="U28" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>846</v>
+      </c>
+      <c r="F29">
+        <v>16728</v>
+      </c>
+      <c r="G29">
+        <v>900135</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>20527</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>360416</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>485823</v>
+      </c>
+      <c r="P29">
+        <v>191650</v>
+      </c>
+      <c r="Q29">
+        <v>266384</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>1329</v>
+      </c>
+      <c r="T29">
+        <v>24358</v>
+      </c>
+      <c r="U29" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>846</v>
+      </c>
+      <c r="F30">
+        <v>17015</v>
+      </c>
+      <c r="G30">
+        <v>375812</v>
+      </c>
+      <c r="H30">
+        <v>158</v>
+      </c>
+      <c r="I30">
+        <v>8248</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>150348</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>203584</v>
+      </c>
+      <c r="P30">
+        <v>80702</v>
+      </c>
+      <c r="Q30">
+        <v>111475</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>549</v>
+      </c>
+      <c r="T30">
+        <v>10157</v>
+      </c>
+      <c r="U30" s="13">
+        <v>0</v>
+      </c>
+      <c r="V30" s="10">
+        <v>375453</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>846</v>
+      </c>
+      <c r="F31">
+        <v>18025</v>
+      </c>
+      <c r="G31">
+        <v>283944</v>
+      </c>
+      <c r="H31">
+        <v>110</v>
+      </c>
+      <c r="I31">
+        <v>7055</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>111058</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>154650</v>
+      </c>
+      <c r="P31">
+        <v>61330</v>
+      </c>
+      <c r="Q31">
+        <v>84558</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>394</v>
+      </c>
+      <c r="T31">
+        <v>8027</v>
+      </c>
+      <c r="U31" s="13">
+        <v>0</v>
+      </c>
+      <c r="V31" s="10">
+        <v>283517</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D39">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>D2&lt;&gt;"ModelResultImpl"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B26FCC3-3055-4CEC-BBF2-F08BB979D751}">
+  <dimension ref="A1:V31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:V1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="22" max="22" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>1028</v>
+      </c>
+      <c r="F2">
+        <v>24134</v>
+      </c>
+      <c r="G2">
+        <v>7468</v>
+      </c>
+      <c r="H2">
+        <v>26</v>
+      </c>
+      <c r="I2">
+        <v>1990</v>
+      </c>
+      <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>656</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1580</v>
+      </c>
+      <c r="P2">
+        <v>738</v>
+      </c>
+      <c r="Q2">
+        <v>722</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>60</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="10">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1028</v>
+      </c>
+      <c r="F3">
+        <v>22526</v>
+      </c>
+      <c r="G3">
+        <v>3357</v>
+      </c>
+      <c r="H3">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>843</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>193</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>503</v>
+      </c>
+      <c r="P3">
+        <v>192</v>
+      </c>
+      <c r="Q3">
+        <v>268</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>25</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1028</v>
+      </c>
+      <c r="F4">
+        <v>22680</v>
+      </c>
+      <c r="G4">
+        <v>4108</v>
+      </c>
+      <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>911</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>375</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>806</v>
+      </c>
+      <c r="P4">
+        <v>318</v>
+      </c>
+      <c r="Q4">
+        <v>426</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>38</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="10">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1028</v>
+      </c>
+      <c r="F5">
+        <v>22520</v>
+      </c>
+      <c r="G5">
+        <v>3368</v>
+      </c>
+      <c r="H5">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>724</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>206</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>642</v>
+      </c>
+      <c r="P5">
+        <v>234</v>
+      </c>
+      <c r="Q5">
+        <v>356</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>32</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1028</v>
+      </c>
+      <c r="F6">
+        <v>22611</v>
+      </c>
+      <c r="G6">
+        <v>4908</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>1134</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>622</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>919</v>
+      </c>
+      <c r="P6">
+        <v>357</v>
+      </c>
+      <c r="Q6">
+        <v>482</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>48</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1028</v>
+      </c>
+      <c r="F7">
+        <v>22086</v>
+      </c>
+      <c r="G7">
+        <v>4773</v>
+      </c>
+      <c r="H7">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>1224</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>448</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>962</v>
+      </c>
+      <c r="P7">
+        <v>382</v>
+      </c>
+      <c r="Q7">
+        <v>495</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>36</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1028</v>
+      </c>
+      <c r="F8">
+        <v>22553</v>
+      </c>
+      <c r="G8">
+        <v>4283</v>
+      </c>
+      <c r="H8">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>995</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>196</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>824</v>
+      </c>
+      <c r="P8">
+        <v>316</v>
+      </c>
+      <c r="Q8">
+        <v>449</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>34</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1028</v>
+      </c>
+      <c r="F9">
+        <v>26022</v>
+      </c>
+      <c r="G9">
+        <v>5545</v>
+      </c>
+      <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <v>1401</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>911</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1073</v>
+      </c>
+      <c r="P9">
+        <v>406</v>
+      </c>
+      <c r="Q9">
+        <v>585</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>52</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1028</v>
+      </c>
+      <c r="F10">
+        <v>22378</v>
+      </c>
+      <c r="G10">
+        <v>3105</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>553</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>88</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>630</v>
+      </c>
+      <c r="P10">
+        <v>219</v>
+      </c>
+      <c r="Q10">
+        <v>289</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>27</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="10">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1028</v>
+      </c>
+      <c r="F11">
+        <v>22013</v>
+      </c>
+      <c r="G11">
+        <v>2510</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>537</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>139</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>408</v>
+      </c>
+      <c r="P11">
+        <v>162</v>
+      </c>
+      <c r="Q11">
+        <v>215</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>26</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="10">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2">
+        <v>791</v>
+      </c>
+      <c r="F12" s="2">
+        <v>20417</v>
+      </c>
+      <c r="G12" s="2">
+        <v>14898</v>
+      </c>
+      <c r="H12" s="2">
+        <v>42</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2785</v>
+      </c>
+      <c r="J12" s="2">
+        <v>17</v>
+      </c>
+      <c r="K12" s="2">
+        <v>6469</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1853</v>
+      </c>
+      <c r="P12" s="2">
+        <v>877</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>819</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>4</v>
+      </c>
+      <c r="T12" s="2">
+        <v>80</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="8">
+        <v>13162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4">
+        <v>791</v>
+      </c>
+      <c r="F13" s="4">
+        <v>19342</v>
+      </c>
+      <c r="G13" s="4">
+        <v>7073</v>
+      </c>
+      <c r="H13" s="4">
+        <v>34</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1725</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>2266</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1054</v>
+      </c>
+      <c r="P13" s="4">
+        <v>429</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>547</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>2</v>
+      </c>
+      <c r="T13" s="4">
+        <v>64</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4">
+        <v>791</v>
+      </c>
+      <c r="F14" s="4">
+        <v>18958</v>
+      </c>
+      <c r="G14" s="4">
+        <v>11024</v>
+      </c>
+      <c r="H14" s="4">
+        <v>33</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2217</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4">
+        <v>5020</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>916</v>
+      </c>
+      <c r="P14" s="4">
+        <v>365</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>477</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>2</v>
+      </c>
+      <c r="T14" s="4">
+        <v>57</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>9730</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="4">
+        <v>791</v>
+      </c>
+      <c r="F15" s="4">
+        <v>19062</v>
+      </c>
+      <c r="G15" s="4">
+        <v>18042</v>
+      </c>
+      <c r="H15" s="4">
+        <v>39</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2955</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>10110</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>3</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1516</v>
+      </c>
+      <c r="P15" s="4">
+        <v>598</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>815</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>3</v>
+      </c>
+      <c r="T15" s="4">
+        <v>89</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <v>16883</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4">
+        <v>791</v>
+      </c>
+      <c r="F16" s="4">
+        <v>18584</v>
+      </c>
+      <c r="G16" s="4">
+        <v>8407</v>
+      </c>
+      <c r="H16" s="4">
+        <v>28</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1794</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3143</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1179</v>
+      </c>
+      <c r="P16" s="4">
+        <v>464</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>600</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>2</v>
+      </c>
+      <c r="T16" s="4">
+        <v>71</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>7155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="4">
+        <v>791</v>
+      </c>
+      <c r="F17" s="4">
+        <v>19070</v>
+      </c>
+      <c r="G17" s="4">
+        <v>9088</v>
+      </c>
+      <c r="H17" s="4">
+        <v>30</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1937</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>3730</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1085</v>
+      </c>
+      <c r="P17" s="4">
+        <v>441</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>571</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>2</v>
+      </c>
+      <c r="T17" s="4">
+        <v>69</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <v>7956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="4">
+        <v>791</v>
+      </c>
+      <c r="F18" s="4">
+        <v>18723</v>
+      </c>
+      <c r="G18" s="4">
+        <v>6627</v>
+      </c>
+      <c r="H18" s="4">
+        <v>29</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1675</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2008</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>950</v>
+      </c>
+      <c r="P18" s="4">
+        <v>386</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>501</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>1</v>
+      </c>
+      <c r="T18" s="4">
+        <v>60</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7">
+        <v>5544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="4">
+        <v>791</v>
+      </c>
+      <c r="F19" s="4">
+        <v>19349</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5547</v>
+      </c>
+      <c r="H19" s="4">
+        <v>22</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1289</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1532</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>898</v>
+      </c>
+      <c r="P19" s="4">
+        <v>365</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>474</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
+        <v>58</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="4">
+        <v>791</v>
+      </c>
+      <c r="F20" s="4">
+        <v>18486</v>
+      </c>
+      <c r="G20" s="4">
+        <v>11656</v>
+      </c>
+      <c r="H20" s="4">
+        <v>29</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2177</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>5533</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>1224</v>
+      </c>
+      <c r="P20" s="4">
+        <v>501</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>641</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>2</v>
+      </c>
+      <c r="T20" s="4">
+        <v>75</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="7">
+        <v>10486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="6">
+        <v>791</v>
+      </c>
+      <c r="F21" s="6">
+        <v>18982</v>
+      </c>
+      <c r="G21" s="6">
+        <v>8618</v>
+      </c>
+      <c r="H21" s="6">
+        <v>28</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1870</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>3453</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1076</v>
+      </c>
+      <c r="P21" s="6">
+        <v>435</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>568</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <v>1</v>
+      </c>
+      <c r="T21" s="6">
+        <v>69</v>
+      </c>
+      <c r="U21" s="6">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9">
+        <v>7534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>785</v>
+      </c>
+      <c r="F22">
+        <v>20333</v>
+      </c>
+      <c r="G22">
+        <v>27619</v>
+      </c>
+      <c r="H22">
+        <v>82</v>
+      </c>
+      <c r="I22">
+        <v>4135</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>15623</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>2284</v>
+      </c>
+      <c r="P22">
+        <v>986</v>
+      </c>
+      <c r="Q22">
+        <v>1092</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>5</v>
+      </c>
+      <c r="T22">
+        <v>92</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22" s="10">
+        <v>25666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>785</v>
+      </c>
+      <c r="F23">
+        <v>18978</v>
+      </c>
+      <c r="G23">
+        <v>57199</v>
+      </c>
+      <c r="H23">
+        <v>55</v>
+      </c>
+      <c r="I23">
+        <v>7190</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>38319</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>3527</v>
+      </c>
+      <c r="P23">
+        <v>1412</v>
+      </c>
+      <c r="Q23">
+        <v>1826</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>8</v>
+      </c>
+      <c r="T23">
+        <v>199</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" s="10">
+        <v>55959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>785</v>
+      </c>
+      <c r="F24">
+        <v>18736</v>
+      </c>
+      <c r="G24">
+        <v>20107</v>
+      </c>
+      <c r="H24">
+        <v>58</v>
+      </c>
+      <c r="I24">
+        <v>2963</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>11893</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1734</v>
+      </c>
+      <c r="P24">
+        <v>725</v>
+      </c>
+      <c r="Q24">
+        <v>826</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>94</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24" s="10">
+        <v>18843</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>785</v>
+      </c>
+      <c r="F25">
+        <v>18687</v>
+      </c>
+      <c r="G25">
+        <v>33152</v>
+      </c>
+      <c r="H25">
+        <v>39</v>
+      </c>
+      <c r="I25">
+        <v>4060</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>22495</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1598</v>
+      </c>
+      <c r="P25">
+        <v>651</v>
+      </c>
+      <c r="Q25">
+        <v>844</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>3</v>
+      </c>
+      <c r="T25">
+        <v>98</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25" s="10">
+        <v>31960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>785</v>
+      </c>
+      <c r="F26">
+        <v>18950</v>
+      </c>
+      <c r="G26">
+        <v>33598</v>
+      </c>
+      <c r="H26">
+        <v>40</v>
+      </c>
+      <c r="I26">
+        <v>4756</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>21354</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1909</v>
+      </c>
+      <c r="P26">
+        <v>772</v>
+      </c>
+      <c r="Q26">
+        <v>1013</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>104</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26" s="10">
+        <v>32210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>785</v>
+      </c>
+      <c r="F27">
+        <v>17973</v>
+      </c>
+      <c r="G27">
+        <v>41228</v>
+      </c>
+      <c r="H27">
+        <v>37</v>
+      </c>
+      <c r="I27">
+        <v>4972</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>28117</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1861</v>
+      </c>
+      <c r="P27">
+        <v>742</v>
+      </c>
+      <c r="Q27">
+        <v>1002</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>107</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27" s="10">
+        <v>39950</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>785</v>
+      </c>
+      <c r="F28">
+        <v>18313</v>
+      </c>
+      <c r="G28">
+        <v>29620</v>
+      </c>
+      <c r="H28">
+        <v>404</v>
+      </c>
+      <c r="I28">
+        <v>4006</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>19476</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1545</v>
+      </c>
+      <c r="P28">
+        <v>633</v>
+      </c>
+      <c r="Q28">
+        <v>810</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>93</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28" s="10">
+        <v>28456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>785</v>
+      </c>
+      <c r="F29">
+        <v>18439</v>
+      </c>
+      <c r="G29">
+        <v>24905</v>
+      </c>
+      <c r="H29">
+        <v>32</v>
+      </c>
+      <c r="I29">
+        <v>3468</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>15772</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1550</v>
+      </c>
+      <c r="P29">
+        <v>629</v>
+      </c>
+      <c r="Q29">
+        <v>819</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+      <c r="T29">
+        <v>98</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29" s="10">
+        <v>23663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>785</v>
+      </c>
+      <c r="F30">
+        <v>18368</v>
+      </c>
+      <c r="G30">
+        <v>17932</v>
+      </c>
+      <c r="H30">
+        <v>28</v>
+      </c>
+      <c r="I30">
+        <v>2916</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>10104</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1491</v>
+      </c>
+      <c r="P30">
+        <v>616</v>
+      </c>
+      <c r="Q30">
+        <v>782</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>3</v>
+      </c>
+      <c r="T30">
+        <v>92</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30" s="10">
+        <v>16631</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>785</v>
+      </c>
+      <c r="F31">
+        <v>18387</v>
+      </c>
+      <c r="G31">
+        <v>29921</v>
+      </c>
+      <c r="H31">
+        <v>438</v>
+      </c>
+      <c r="I31">
+        <v>3999</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>19797</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1469</v>
+      </c>
+      <c r="P31">
+        <v>603</v>
+      </c>
+      <c r="Q31">
+        <v>771</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>91</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31" s="10">
+        <v>28853</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D41">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>D2&lt;&gt;"ModelResultImpl"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BC1C20-499E-45DE-9FFA-C2A905D84B1C}">
+  <dimension ref="A1:V31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:V1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="22" max="22" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>1699</v>
+      </c>
+      <c r="F2">
+        <v>36100</v>
+      </c>
+      <c r="G2">
+        <v>127279</v>
+      </c>
+      <c r="H2">
+        <v>48</v>
+      </c>
+      <c r="I2">
+        <v>20041</v>
+      </c>
+      <c r="J2">
+        <v>185</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>18</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>561</v>
+      </c>
+      <c r="P2">
+        <v>80</v>
+      </c>
+      <c r="Q2">
+        <v>86</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>7</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="10">
+        <v>30546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1699</v>
+      </c>
+      <c r="F3">
+        <v>32552</v>
+      </c>
+      <c r="G3">
+        <v>110917</v>
+      </c>
+      <c r="H3">
+        <v>55</v>
+      </c>
+      <c r="I3">
+        <v>16052</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>458</v>
+      </c>
+      <c r="P3">
+        <v>104</v>
+      </c>
+      <c r="Q3">
+        <v>75</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>8</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
+        <v>22870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1699</v>
+      </c>
+      <c r="F4">
+        <v>29753</v>
+      </c>
+      <c r="G4">
+        <v>104875</v>
+      </c>
+      <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>10437</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>410</v>
+      </c>
+      <c r="P4">
+        <v>66</v>
+      </c>
+      <c r="Q4">
+        <v>62</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>7</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="10">
+        <v>16748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1699</v>
+      </c>
+      <c r="F5">
+        <v>32082</v>
+      </c>
+      <c r="G5">
+        <v>96797</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>7879</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>347</v>
+      </c>
+      <c r="P5">
+        <v>39</v>
+      </c>
+      <c r="Q5">
+        <v>53</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>6</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10">
+        <v>13035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1699</v>
+      </c>
+      <c r="F6">
+        <v>29783</v>
+      </c>
+      <c r="G6">
+        <v>101793</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>11966</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>433</v>
+      </c>
+      <c r="P6">
+        <v>60</v>
+      </c>
+      <c r="Q6">
+        <v>81</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>8</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
+        <v>18056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1699</v>
+      </c>
+      <c r="F7">
+        <v>30260</v>
+      </c>
+      <c r="G7">
+        <v>121233</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>25982</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>479</v>
+      </c>
+      <c r="P7">
+        <v>75</v>
+      </c>
+      <c r="Q7">
+        <v>82</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>9</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <v>36832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1699</v>
+      </c>
+      <c r="F8">
+        <v>29244</v>
+      </c>
+      <c r="G8">
+        <v>97533</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>7570</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>356</v>
+      </c>
+      <c r="P8">
+        <v>53</v>
+      </c>
+      <c r="Q8">
+        <v>54</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <v>12397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1699</v>
+      </c>
+      <c r="F9">
+        <v>29348</v>
+      </c>
+      <c r="G9">
+        <v>145401</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>43378</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>469</v>
+      </c>
+      <c r="P9">
+        <v>94</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>12</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <v>58892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1699</v>
+      </c>
+      <c r="F10">
+        <v>30109</v>
+      </c>
+      <c r="G10">
+        <v>95858</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>7948</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>340</v>
+      </c>
+      <c r="P10">
+        <v>37</v>
+      </c>
+      <c r="Q10">
+        <v>53</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="10">
+        <v>12788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1699</v>
+      </c>
+      <c r="F11">
+        <v>29240</v>
+      </c>
+      <c r="G11">
+        <v>106009</v>
+      </c>
+      <c r="H11">
+        <v>501</v>
+      </c>
+      <c r="I11">
+        <v>13207</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>391</v>
+      </c>
+      <c r="P11">
+        <v>55</v>
+      </c>
+      <c r="Q11">
+        <v>78</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>9</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="10">
+        <v>19414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1131</v>
+      </c>
+      <c r="F12" s="2">
+        <v>31344</v>
+      </c>
+      <c r="G12" s="2">
+        <v>433879</v>
+      </c>
+      <c r="H12" s="2">
+        <v>245</v>
+      </c>
+      <c r="I12" s="2">
+        <v>252607</v>
+      </c>
+      <c r="J12" s="2">
+        <v>115</v>
+      </c>
+      <c r="K12" s="2">
+        <v>246</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>11</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1735</v>
+      </c>
+      <c r="P12" s="2">
+        <v>675</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>645</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>3</v>
+      </c>
+      <c r="T12" s="2">
+        <v>75</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="8">
+        <v>343427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1131</v>
+      </c>
+      <c r="F13" s="4">
+        <v>32550</v>
+      </c>
+      <c r="G13" s="4">
+        <v>938523</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>782339</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>187</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1064</v>
+      </c>
+      <c r="P13" s="4">
+        <v>388</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>473</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>2</v>
+      </c>
+      <c r="T13" s="4">
+        <v>58</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1131</v>
+      </c>
+      <c r="F14" s="4">
+        <v>30337</v>
+      </c>
+      <c r="G14" s="4">
+        <v>958117</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>805939</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>173</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>950</v>
+      </c>
+      <c r="P14" s="4">
+        <v>342</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>407</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>2</v>
+      </c>
+      <c r="T14" s="4">
+        <v>50</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1131</v>
+      </c>
+      <c r="F15" s="4">
+        <v>30343</v>
+      </c>
+      <c r="G15" s="4">
+        <v>912082</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>748150</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>177</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1009</v>
+      </c>
+      <c r="P15" s="4">
+        <v>354</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>439</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>2</v>
+      </c>
+      <c r="T15" s="4">
+        <v>50</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1131</v>
+      </c>
+      <c r="F16" s="4">
+        <v>35271</v>
+      </c>
+      <c r="G16" s="4">
+        <v>339229</v>
+      </c>
+      <c r="H16" s="4">
+        <v>28</v>
+      </c>
+      <c r="I16" s="4">
+        <v>162815</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>137</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>9</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>1348</v>
+      </c>
+      <c r="P16" s="4">
+        <v>401</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>488</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
+        <v>48</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>222902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1131</v>
+      </c>
+      <c r="F17" s="4">
+        <v>34542</v>
+      </c>
+      <c r="G17" s="4">
+        <v>924491</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>745612</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>154</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>1057</v>
+      </c>
+      <c r="P17" s="4">
+        <v>345</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>437</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>1</v>
+      </c>
+      <c r="T17" s="4">
+        <v>47</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1131</v>
+      </c>
+      <c r="F18" s="4">
+        <v>29321</v>
+      </c>
+      <c r="G18" s="4">
+        <v>905981</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>749120</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>162</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>1101</v>
+      </c>
+      <c r="P18" s="4">
+        <v>361</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>451</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>1</v>
+      </c>
+      <c r="T18" s="4">
+        <v>53</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1131</v>
+      </c>
+      <c r="F19" s="4">
+        <v>29064</v>
+      </c>
+      <c r="G19" s="4">
+        <v>146484</v>
+      </c>
+      <c r="H19" s="4">
+        <v>22</v>
+      </c>
+      <c r="I19" s="4">
+        <v>38180</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>18</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>6</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>615</v>
+      </c>
+      <c r="P19" s="4">
+        <v>122</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>164</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>20</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7">
+        <v>53065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1131</v>
+      </c>
+      <c r="F20" s="4">
+        <v>29133</v>
+      </c>
+      <c r="G20" s="4">
+        <v>137335</v>
+      </c>
+      <c r="H20" s="4">
+        <v>19</v>
+      </c>
+      <c r="I20" s="4">
+        <v>30708</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>17</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>5</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>523</v>
+      </c>
+      <c r="P20" s="4">
+        <v>105</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>140</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>16</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="7">
+        <v>41559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1131</v>
+      </c>
+      <c r="F21" s="6">
+        <v>29362</v>
+      </c>
+      <c r="G21" s="6">
+        <v>118161</v>
+      </c>
+      <c r="H21" s="6">
+        <v>17</v>
+      </c>
+      <c r="I21" s="6">
+        <v>15683</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>7</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>6</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>460</v>
+      </c>
+      <c r="P21" s="6">
+        <v>73</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>103</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
+        <v>12</v>
+      </c>
+      <c r="U21" s="6">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9">
+        <v>22041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1105</v>
+      </c>
+      <c r="F22">
+        <v>29819</v>
+      </c>
+      <c r="G22">
+        <v>948461</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>811947</v>
+      </c>
+      <c r="J22">
+        <v>121</v>
+      </c>
+      <c r="K22">
+        <v>541</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1165</v>
+      </c>
+      <c r="P22">
+        <v>445</v>
+      </c>
+      <c r="Q22">
+        <v>506</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>60</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1105</v>
+      </c>
+      <c r="F23">
+        <v>29150</v>
+      </c>
+      <c r="G23">
+        <v>157894</v>
+      </c>
+      <c r="H23">
+        <v>81</v>
+      </c>
+      <c r="I23">
+        <v>48135</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>37</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>466</v>
+      </c>
+      <c r="P23">
+        <v>81</v>
+      </c>
+      <c r="Q23">
+        <v>109</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>13</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" s="10">
+        <v>53636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1105</v>
+      </c>
+      <c r="F24">
+        <v>29552</v>
+      </c>
+      <c r="G24">
+        <v>954849</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>805483</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1166</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1258</v>
+      </c>
+      <c r="P24">
+        <v>461</v>
+      </c>
+      <c r="Q24">
+        <v>567</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>68</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>1105</v>
+      </c>
+      <c r="F25">
+        <v>28625</v>
+      </c>
+      <c r="G25">
+        <v>944562</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>792891</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>433</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1125</v>
+      </c>
+      <c r="P25">
+        <v>422</v>
+      </c>
+      <c r="Q25">
+        <v>497</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>60</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>1105</v>
+      </c>
+      <c r="F26">
+        <v>28371</v>
+      </c>
+      <c r="G26">
+        <v>169696</v>
+      </c>
+      <c r="H26">
+        <v>354</v>
+      </c>
+      <c r="I26">
+        <v>56637</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>40</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>7</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>465</v>
+      </c>
+      <c r="P26">
+        <v>79</v>
+      </c>
+      <c r="Q26">
+        <v>107</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>13</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26" s="10">
+        <v>63547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>1105</v>
+      </c>
+      <c r="F27">
+        <v>28074</v>
+      </c>
+      <c r="G27">
+        <v>954423</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>795665</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>480</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1026</v>
+      </c>
+      <c r="P27">
+        <v>366</v>
+      </c>
+      <c r="Q27">
+        <v>458</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>54</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1105</v>
+      </c>
+      <c r="F28">
+        <v>28347</v>
+      </c>
+      <c r="G28">
+        <v>912969</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>627424</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>2889</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>3796</v>
+      </c>
+      <c r="P28">
+        <v>1498</v>
+      </c>
+      <c r="Q28">
+        <v>1840</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>7</v>
+      </c>
+      <c r="T28">
+        <v>219</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1105</v>
+      </c>
+      <c r="F29">
+        <v>28160</v>
+      </c>
+      <c r="G29">
+        <v>912889</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>758368</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>556</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1400</v>
+      </c>
+      <c r="P29">
+        <v>521</v>
+      </c>
+      <c r="Q29">
+        <v>653</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
+        <v>80</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>1105</v>
+      </c>
+      <c r="F30">
+        <v>28793</v>
+      </c>
+      <c r="G30">
+        <v>348246</v>
+      </c>
+      <c r="H30">
+        <v>32</v>
+      </c>
+      <c r="I30">
+        <v>206034</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>208</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>7</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>900</v>
+      </c>
+      <c r="P30">
+        <v>257</v>
+      </c>
+      <c r="Q30">
+        <v>334</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>40</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30" s="10">
+        <v>243968</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31">
+        <v>1105</v>
+      </c>
+      <c r="F31">
+        <v>28017</v>
+      </c>
+      <c r="G31">
+        <v>911746</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>708351</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>944</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>2129</v>
+      </c>
+      <c r="P31">
+        <v>799</v>
+      </c>
+      <c r="Q31">
+        <v>1018</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+      <c r="T31">
+        <v>121</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D42">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>D2&lt;&gt;"ModelResultImpl"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A388E8-9394-4865-A2AE-1BA90640BDD1}">
+  <dimension ref="A1:V21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="22" max="22" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>1667</v>
+      </c>
+      <c r="F2">
+        <v>36892</v>
+      </c>
+      <c r="G2">
+        <v>235265</v>
+      </c>
+      <c r="H2">
+        <v>42</v>
+      </c>
+      <c r="I2">
+        <v>107699</v>
+      </c>
+      <c r="J2">
+        <v>250</v>
+      </c>
+      <c r="K2">
+        <v>60</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>14</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1053</v>
+      </c>
+      <c r="P2">
+        <v>346</v>
+      </c>
+      <c r="Q2">
+        <v>291</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>28</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="10">
+        <v>137202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1667</v>
+      </c>
+      <c r="F3">
+        <v>35233</v>
+      </c>
+      <c r="G3">
+        <v>150051</v>
+      </c>
+      <c r="H3">
+        <v>29</v>
+      </c>
+      <c r="I3">
+        <v>32871</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>580</v>
+      </c>
+      <c r="P3">
+        <v>99</v>
+      </c>
+      <c r="Q3">
+        <v>98</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>8</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
+        <v>46285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1667</v>
+      </c>
+      <c r="F4">
+        <v>34810</v>
+      </c>
+      <c r="G4">
+        <v>147324</v>
+      </c>
+      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>37986</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>561</v>
+      </c>
+      <c r="P4">
+        <v>101</v>
+      </c>
+      <c r="Q4">
+        <v>126</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>13</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="10">
+        <v>49717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1667</v>
+      </c>
+      <c r="F5">
+        <v>36318</v>
+      </c>
+      <c r="G5">
+        <v>258217</v>
+      </c>
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>125864</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>864</v>
+      </c>
+      <c r="P5">
+        <v>209</v>
+      </c>
+      <c r="Q5">
+        <v>288</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>24</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10">
+        <v>156571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1667</v>
+      </c>
+      <c r="F6">
+        <v>36871</v>
+      </c>
+      <c r="G6">
+        <v>234432</v>
+      </c>
+      <c r="H6">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>106465</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>29</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>549</v>
+      </c>
+      <c r="P6">
+        <v>82</v>
+      </c>
+      <c r="Q6">
+        <v>111</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>11</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
+        <v>135382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1667</v>
+      </c>
+      <c r="F7">
+        <v>35200</v>
+      </c>
+      <c r="G7">
+        <v>181882</v>
+      </c>
+      <c r="H7">
+        <v>26</v>
+      </c>
+      <c r="I7">
+        <v>58963</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>596</v>
+      </c>
+      <c r="P7">
+        <v>102</v>
+      </c>
+      <c r="Q7">
+        <v>136</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>12</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <v>79879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1667</v>
+      </c>
+      <c r="F8">
+        <v>34587</v>
+      </c>
+      <c r="G8">
+        <v>314732</v>
+      </c>
+      <c r="H8">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>160354</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>36</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>892</v>
+      </c>
+      <c r="P8">
+        <v>203</v>
+      </c>
+      <c r="Q8">
+        <v>269</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>27</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <v>214997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1667</v>
+      </c>
+      <c r="F9">
+        <v>33870</v>
+      </c>
+      <c r="G9">
+        <v>180626</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>64324</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>637</v>
+      </c>
+      <c r="P9">
+        <v>119</v>
+      </c>
+      <c r="Q9">
+        <v>160</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>15</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <v>78885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1667</v>
+      </c>
+      <c r="F10">
+        <v>34405</v>
+      </c>
+      <c r="G10">
+        <v>273426</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>133843</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>27</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>576</v>
+      </c>
+      <c r="P10">
+        <v>94</v>
+      </c>
+      <c r="Q10">
+        <v>132</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>13</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="10">
+        <v>173833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1667</v>
+      </c>
+      <c r="F11">
+        <v>34863</v>
+      </c>
+      <c r="G11">
+        <v>148896</v>
+      </c>
+      <c r="H11">
+        <v>25</v>
+      </c>
+      <c r="I11">
+        <v>36244</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>609</v>
+      </c>
+      <c r="P11">
+        <v>95</v>
+      </c>
+      <c r="Q11">
+        <v>123</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>11</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="10">
+        <v>50008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1155</v>
+      </c>
+      <c r="F12" s="2">
+        <v>31344</v>
+      </c>
+      <c r="G12" s="2">
+        <v>911696</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>762642</v>
+      </c>
+      <c r="J12" s="2">
+        <v>51</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3858</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2657</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1087</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1226</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>6</v>
+      </c>
+      <c r="T12" s="2">
+        <v>124</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1155</v>
+      </c>
+      <c r="F13" s="4">
+        <v>35023</v>
+      </c>
+      <c r="G13" s="4">
+        <v>216703</v>
+      </c>
+      <c r="H13" s="4">
+        <v>383</v>
+      </c>
+      <c r="I13" s="4">
+        <v>75528</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
+      <c r="K13" s="4">
+        <v>83</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>13</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1078</v>
+      </c>
+      <c r="P13" s="4">
+        <v>268</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>359</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>1</v>
+      </c>
+      <c r="T13" s="4">
+        <v>34</v>
+      </c>
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <v>99519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1155</v>
+      </c>
+      <c r="F14" s="4">
+        <v>33885</v>
+      </c>
+      <c r="G14" s="4">
+        <v>261096</v>
+      </c>
+      <c r="H14" s="4">
+        <v>33</v>
+      </c>
+      <c r="I14" s="4">
+        <v>117210</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>148</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>6</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>1217</v>
+      </c>
+      <c r="P14" s="4">
+        <v>362</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>437</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <v>2</v>
+      </c>
+      <c r="T14" s="4">
+        <v>53</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="7">
+        <v>152798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1155</v>
+      </c>
+      <c r="F15" s="4">
+        <v>29975</v>
+      </c>
+      <c r="G15" s="4">
+        <v>940879</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>811764</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>6003</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>3447</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1326</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>1671</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>6</v>
+      </c>
+      <c r="T15" s="4">
+        <v>213</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1155</v>
+      </c>
+      <c r="F16" s="4">
+        <v>29965</v>
+      </c>
+      <c r="G16" s="4">
+        <v>166233</v>
+      </c>
+      <c r="H16" s="4">
+        <v>26</v>
+      </c>
+      <c r="I16" s="4">
+        <v>52941</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>44</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>6</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>748</v>
+      </c>
+      <c r="P16" s="4">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>270</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>28</v>
+      </c>
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>69330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1155</v>
+      </c>
+      <c r="F17" s="4">
+        <v>28697</v>
+      </c>
+      <c r="G17" s="4">
+        <v>904036</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>687726</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>6912</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>3426</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1322</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>1698</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="S17" s="4">
+        <v>6</v>
+      </c>
+      <c r="T17" s="4">
+        <v>193</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1155</v>
+      </c>
+      <c r="F18" s="4">
+        <v>30242</v>
+      </c>
+      <c r="G18" s="4">
+        <v>944666</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>754738</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>697</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>2058</v>
+      </c>
+      <c r="P18" s="4">
+        <v>801</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>986</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>3</v>
+      </c>
+      <c r="T18" s="4">
+        <v>106</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="7"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1155</v>
+      </c>
+      <c r="F19" s="4">
+        <v>29338</v>
+      </c>
+      <c r="G19" s="4">
+        <v>911445</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>613989</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>984</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>3510</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1388</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>1754</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>6</v>
+      </c>
+      <c r="T19" s="4">
+        <v>221</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="7"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1155</v>
+      </c>
+      <c r="F20" s="4">
+        <v>29253</v>
+      </c>
+      <c r="G20" s="4">
+        <v>969335</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>792499</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>938</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>2417</v>
+      </c>
+      <c r="P20" s="4">
+        <v>932</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>1191</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>4</v>
+      </c>
+      <c r="T20" s="4">
+        <v>147</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="7"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1155</v>
+      </c>
+      <c r="F21" s="6">
+        <v>30617</v>
+      </c>
+      <c r="G21" s="6">
+        <v>914869</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>756204</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>615</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1881</v>
+      </c>
+      <c r="P21" s="6">
+        <v>722</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>902</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <v>3</v>
+      </c>
+      <c r="T21" s="6">
+        <v>112</v>
+      </c>
+      <c r="U21" s="6">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D43">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>D2&lt;&gt;"ModelResultImpl"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E339474-AB5B-4B13-94AD-CF43882F4DEE}">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W45" sqref="W45:X46"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4111,46 +11987,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B26FCC3-3055-4CEC-BBF2-F08BB979D751}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BC1C20-499E-45DE-9FFA-C2A905D84B1C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A388E8-9394-4865-A2AE-1BA90640BDD1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>